--- a/Templates.xlsx
+++ b/Templates.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manup\Desktop\estimate-drafter\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2D3E05-F134-4C0F-8931-7CFBF3E50DB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Iron Structure" sheetId="1" r:id="rId1"/>
-    <sheet name="MWSS with Submerssible Pump" sheetId="2" r:id="rId2"/>
+    <sheet name="MWSS with Submersible Pump" sheetId="2" r:id="rId2"/>
     <sheet name="MWSS with Compressor Pump" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -60,18 +54,12 @@
     <t>Borewell Developing Charges</t>
   </si>
   <si>
-    <t>Supply Fitting of Submerssible Pump Single Phase - 1.5hp 18 stage 107-30m head ISI</t>
-  </si>
-  <si>
     <t>Supply Fitting of ISI UPVC Pipe 40mm dia</t>
   </si>
   <si>
     <t>Supply Fitting of Nylon Rope 14mm thick</t>
   </si>
   <si>
-    <t>Supply Fitting of Submerssible 3 Core Cable ISI 4mm</t>
-  </si>
-  <si>
     <t>Pump erection charge upto 3hp</t>
   </si>
   <si>
@@ -108,18 +96,6 @@
     <t>Supply fitting of PVC ball valve 40mm</t>
   </si>
   <si>
-    <t>Providing and fixing ISI PVC Pipes includes jointing of pipes with one step PVC solvent cement, trenching, refilling &amp; testing of joints complete as per direction of Engineer in Charge 50mm 10kg/cm2.</t>
-  </si>
-  <si>
-    <t>Providing and fixing ISI PVC Pipes includes jointing of pipes with one step PVC solvent cement, trenching, refilling &amp; testing of joints complete as per direction of Engineer in Charge 40mm 10kg/cm2.</t>
-  </si>
-  <si>
-    <t>Providing and fixing ISI PVC Pipes includes jointing of pipes with one step PVC solvent cement, trenching, refilling &amp; testing of joints complete as per direction of Engineer in Charge 32mm 10kg/cm2.</t>
-  </si>
-  <si>
-    <t>Providing and fixing ISI PVC Pipes includes jointing of pipes with one step PVC solvent cement, trenching, refilling &amp; testing of joints complete as per direction of Engineer in Charge 25mm 10kg/cm2.</t>
-  </si>
-  <si>
     <t>Fabrication and Installation of Individual Hydrants with tap</t>
   </si>
   <si>
@@ -154,12 +130,30 @@
   </si>
   <si>
     <t>Fabrication and Installation of Metallic pump cover 1 x 0.8 x 0.9m</t>
+  </si>
+  <si>
+    <t>Supply Fitting of Submersible Pump Single Phase - 1.5hp 18 stage 107-30m head ISI</t>
+  </si>
+  <si>
+    <t>Supply Fitting of Submersible 3 Core Cable ISI 4mm</t>
+  </si>
+  <si>
+    <t>Providing and fixing ISI PVC Pipes includes jointing of pipes with one step PVC solvent cement, trenching, refilling &amp; testing of joints complete as per direction of Engineer in Charge 50 mm 10kg/cm2.</t>
+  </si>
+  <si>
+    <t>Providing and fixing ISI PVC Pipes includes jointing of pipes with one step PVC solvent cement, trenching, refilling &amp; testing of joints complete as per direction of Engineer in Charge 40 mm 10kg/cm2.</t>
+  </si>
+  <si>
+    <t>Providing and fixing ISI PVC Pipes includes jointing of pipes with one step PVC solvent cement, trenching, refilling &amp; testing of joints complete as per direction of Engineer in Charge 32 mm 10kg/cm2.</t>
+  </si>
+  <si>
+    <t>Providing and fixing ISI PVC Pipes includes jointing of pipes with one step PVC solvent cement, trenching, refilling &amp; testing of joints complete as per direction of Engineer in Charge 25 mm 10kg/cm2.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -266,7 +260,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -301,7 +295,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -478,18 +472,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -561,11 +555,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{583C9B96-BF6E-461B-A1F0-2E9F31276D22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -593,7 +587,7 @@
     </row>
     <row r="3" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -601,7 +595,7 @@
     </row>
     <row r="4" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2">
         <v>80</v>
@@ -609,7 +603,7 @@
     </row>
     <row r="5" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2">
         <v>85</v>
@@ -617,7 +611,7 @@
     </row>
     <row r="6" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B6" s="2">
         <v>85</v>
@@ -625,7 +619,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
@@ -633,7 +627,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
@@ -641,7 +635,7 @@
     </row>
     <row r="9" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
@@ -649,7 +643,7 @@
     </row>
     <row r="10" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
@@ -657,7 +651,7 @@
     </row>
     <row r="11" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
@@ -665,7 +659,7 @@
     </row>
     <row r="12" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
@@ -673,7 +667,7 @@
     </row>
     <row r="13" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2">
         <v>1</v>
@@ -681,7 +675,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2">
         <v>3000</v>
@@ -689,7 +683,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
@@ -697,7 +691,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
@@ -705,7 +699,7 @@
     </row>
     <row r="17" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B17" s="2">
         <v>1</v>
@@ -713,7 +707,7 @@
     </row>
     <row r="18" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B18" s="2">
         <v>1</v>
@@ -721,7 +715,7 @@
     </row>
     <row r="19" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B19" s="2">
         <v>50</v>
@@ -729,7 +723,7 @@
     </row>
     <row r="20" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B20" s="2">
         <v>50</v>
@@ -737,7 +731,7 @@
     </row>
     <row r="21" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B21" s="2">
         <v>50</v>
@@ -745,7 +739,7 @@
     </row>
     <row r="22" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B22" s="2">
         <v>50</v>
@@ -753,7 +747,7 @@
     </row>
     <row r="23" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B23" s="2">
         <v>10</v>
@@ -761,7 +755,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B24" s="2">
         <v>100</v>
@@ -769,7 +763,7 @@
     </row>
     <row r="25" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B25" s="2">
         <v>4</v>
@@ -777,7 +771,7 @@
     </row>
     <row r="26" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B26" s="2">
         <v>4</v>
@@ -789,11 +783,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA37FA92-566C-4C0C-AF89-F5EC811362AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -820,7 +814,7 @@
     </row>
     <row r="3" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B3" s="4">
         <v>1</v>
@@ -828,7 +822,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
@@ -836,7 +830,7 @@
     </row>
     <row r="5" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B5" s="4">
         <v>15</v>
@@ -844,7 +838,7 @@
     </row>
     <row r="6" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B6" s="4">
         <v>50</v>
@@ -852,7 +846,7 @@
     </row>
     <row r="7" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B7" s="4">
         <v>60</v>
@@ -860,7 +854,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
@@ -868,7 +862,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B9" s="4">
         <v>1</v>
@@ -876,7 +870,7 @@
     </row>
     <row r="10" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="4">
         <v>65</v>
@@ -884,7 +878,7 @@
     </row>
     <row r="11" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B11" s="4">
         <v>20</v>
@@ -892,7 +886,7 @@
     </row>
     <row r="12" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12" s="4">
         <v>1</v>
@@ -900,7 +894,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13" s="4">
         <v>1</v>
@@ -908,7 +902,7 @@
     </row>
     <row r="14" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14" s="4">
         <v>1</v>
@@ -916,7 +910,7 @@
     </row>
     <row r="15" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B15" s="4">
         <v>1</v>
@@ -924,7 +918,7 @@
     </row>
     <row r="16" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16" s="4">
         <v>1</v>
@@ -932,7 +926,7 @@
     </row>
     <row r="17" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17" s="4">
         <v>1</v>
@@ -940,7 +934,7 @@
     </row>
     <row r="18" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18" s="4">
         <v>1</v>
@@ -948,7 +942,7 @@
     </row>
     <row r="19" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B19" s="4">
         <v>3000</v>
@@ -956,7 +950,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B20" s="4">
         <v>1</v>
@@ -964,7 +958,7 @@
     </row>
     <row r="21" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B21" s="4">
         <v>1</v>
@@ -972,7 +966,7 @@
     </row>
     <row r="22" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B22" s="4">
         <v>1</v>
@@ -980,7 +974,7 @@
     </row>
     <row r="23" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B23" s="4">
         <v>100</v>
@@ -988,7 +982,7 @@
     </row>
     <row r="24" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B24" s="4">
         <v>100</v>
@@ -996,7 +990,7 @@
     </row>
     <row r="25" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B25" s="4">
         <v>100</v>
@@ -1004,7 +998,7 @@
     </row>
     <row r="26" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B26" s="4">
         <v>100</v>
@@ -1012,7 +1006,7 @@
     </row>
     <row r="27" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B27" s="4">
         <v>10</v>
@@ -1020,7 +1014,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B28" s="4">
         <v>250</v>
@@ -1028,7 +1022,7 @@
     </row>
     <row r="29" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B29" s="4">
         <v>6</v>
@@ -1036,7 +1030,7 @@
     </row>
     <row r="30" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B30" s="4">
         <v>6</v>

--- a/Templates.xlsx
+++ b/Templates.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="Iron Structure" sheetId="1" r:id="rId1"/>
@@ -27,14 +27,6 @@
 All kinds of soil (PRICE Code: 2.8.1)</t>
   </si>
   <si>
-    <t>Providing and laying in position cement concrete of specified grade excluding the cost of centering and shuttering - All work up to plinth level:
-1:2:4 (cement : 2 coarse sand : 4 graded stone aggregate 20 mm nominal size) (PRICE Code: 4.1.3)</t>
-  </si>
-  <si>
-    <t>Providing and laying in position specified grade of reinforced cement concrete, excluding the cost of centering, shuttering, finishing and reinforcement - All work up to plinth level:
-1:2:4 ( 1 cement : 2 coarse sand : 4 graded stone aggregate 20 mm nominal size) (PRICE Code: 5.1.3)</t>
-  </si>
-  <si>
     <t>Steel reinforcement for R.C.C work including straightening, cutting, bending, placing in position and binding all complete upto plinth level
 Mild steel and Medium Tensile steel bars (PRICE Code: 5.22.1)</t>
   </si>
@@ -96,6 +88,18 @@
     <t>Supply fitting of PVC ball valve 40mm</t>
   </si>
   <si>
+    <t>Providing and fixing ISI PVC Pipes includes jointing of pipes with one step PVC solvent cement, trenching, refilling &amp; testing of joints complete as per direction of Engineer in Charge 50mm 10kg/cm2.</t>
+  </si>
+  <si>
+    <t>Providing and fixing ISI PVC Pipes includes jointing of pipes with one step PVC solvent cement, trenching, refilling &amp; testing of joints complete as per direction of Engineer in Charge 40mm 10kg/cm2.</t>
+  </si>
+  <si>
+    <t>Providing and fixing ISI PVC Pipes includes jointing of pipes with one step PVC solvent cement, trenching, refilling &amp; testing of joints complete as per direction of Engineer in Charge 32mm 10kg/cm2.</t>
+  </si>
+  <si>
+    <t>Providing and fixing ISI PVC Pipes includes jointing of pipes with one step PVC solvent cement, trenching, refilling &amp; testing of joints complete as per direction of Engineer in Charge 25mm 10kg/cm2.</t>
+  </si>
+  <si>
     <t>Fabrication and Installation of Individual Hydrants with tap</t>
   </si>
   <si>
@@ -138,16 +142,12 @@
     <t>Supply Fitting of Submersible 3 Core Cable ISI 4mm</t>
   </si>
   <si>
-    <t>Providing and fixing ISI PVC Pipes includes jointing of pipes with one step PVC solvent cement, trenching, refilling &amp; testing of joints complete as per direction of Engineer in Charge 50 mm 10kg/cm2.</t>
-  </si>
-  <si>
-    <t>Providing and fixing ISI PVC Pipes includes jointing of pipes with one step PVC solvent cement, trenching, refilling &amp; testing of joints complete as per direction of Engineer in Charge 40 mm 10kg/cm2.</t>
-  </si>
-  <si>
-    <t>Providing and fixing ISI PVC Pipes includes jointing of pipes with one step PVC solvent cement, trenching, refilling &amp; testing of joints complete as per direction of Engineer in Charge 32 mm 10kg/cm2.</t>
-  </si>
-  <si>
-    <t>Providing and fixing ISI PVC Pipes includes jointing of pipes with one step PVC solvent cement, trenching, refilling &amp; testing of joints complete as per direction of Engineer in Charge 25 mm 10kg/cm2.</t>
+    <t>Providing and laying in position cement concrete of specified grade excluding the cost of centering and shuttering - All work up to plinth level:
+1:2:4 (cement : 2 coarse sand : 4 graded stone aggregate 20mm nominal size) (PRICE Code: 4.1.3)</t>
+  </si>
+  <si>
+    <t>Providing and laying in position specified grade of reinforced cement concrete, excluding the cost of centering, shuttering, finishing and reinforcement - All work up to plinth level:
+1:2:4 ( 1 cement : 2 coarse sand : 4 graded stone aggregate 20mm nominal size) (PRICE Code: 5.1.3)</t>
   </si>
 </sst>
 </file>
@@ -482,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -494,10 +494,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
@@ -510,7 +510,7 @@
     </row>
     <row r="3" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
@@ -518,7 +518,7 @@
     </row>
     <row r="4" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="B4" s="3">
         <v>3</v>
@@ -526,7 +526,7 @@
     </row>
     <row r="5" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" s="3">
         <v>4</v>
@@ -534,7 +534,7 @@
     </row>
     <row r="6" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" s="3">
         <v>5</v>
@@ -542,7 +542,7 @@
     </row>
     <row r="7" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" s="3">
         <v>6</v>
@@ -559,7 +559,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -571,15 +571,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="3" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="4" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2">
         <v>80</v>
@@ -603,7 +603,7 @@
     </row>
     <row r="5" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2">
         <v>85</v>
@@ -611,7 +611,7 @@
     </row>
     <row r="6" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B6" s="2">
         <v>85</v>
@@ -619,7 +619,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
@@ -627,7 +627,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
@@ -635,7 +635,7 @@
     </row>
     <row r="9" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
@@ -643,7 +643,7 @@
     </row>
     <row r="10" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
@@ -651,7 +651,7 @@
     </row>
     <row r="11" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
@@ -659,7 +659,7 @@
     </row>
     <row r="12" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
@@ -667,7 +667,7 @@
     </row>
     <row r="13" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2">
         <v>1</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14" s="2">
         <v>3000</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
@@ -691,7 +691,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
@@ -699,7 +699,7 @@
     </row>
     <row r="17" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17" s="2">
         <v>1</v>
@@ -707,7 +707,7 @@
     </row>
     <row r="18" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18" s="2">
         <v>1</v>
@@ -715,7 +715,7 @@
     </row>
     <row r="19" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B19" s="2">
         <v>50</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="20" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2">
         <v>50</v>
@@ -731,7 +731,7 @@
     </row>
     <row r="21" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B21" s="2">
         <v>50</v>
@@ -739,7 +739,7 @@
     </row>
     <row r="22" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B22" s="2">
         <v>50</v>
@@ -747,7 +747,7 @@
     </row>
     <row r="23" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B23" s="2">
         <v>10</v>
@@ -755,7 +755,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B24" s="2">
         <v>100</v>
@@ -763,7 +763,7 @@
     </row>
     <row r="25" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B25" s="2">
         <v>4</v>
@@ -771,7 +771,7 @@
     </row>
     <row r="26" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B26" s="2">
         <v>4</v>
@@ -786,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -798,15 +798,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -814,7 +814,7 @@
     </row>
     <row r="3" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B3" s="4">
         <v>1</v>
@@ -822,7 +822,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
@@ -830,7 +830,7 @@
     </row>
     <row r="5" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B5" s="4">
         <v>15</v>
@@ -838,7 +838,7 @@
     </row>
     <row r="6" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B6" s="4">
         <v>50</v>
@@ -846,7 +846,7 @@
     </row>
     <row r="7" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B7" s="4">
         <v>60</v>
@@ -854,7 +854,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
@@ -862,7 +862,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B9" s="4">
         <v>1</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="10" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" s="4">
         <v>65</v>
@@ -878,7 +878,7 @@
     </row>
     <row r="11" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B11" s="4">
         <v>20</v>
@@ -886,7 +886,7 @@
     </row>
     <row r="12" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B12" s="4">
         <v>1</v>
@@ -894,7 +894,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" s="4">
         <v>1</v>
@@ -902,7 +902,7 @@
     </row>
     <row r="14" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14" s="4">
         <v>1</v>
@@ -910,7 +910,7 @@
     </row>
     <row r="15" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B15" s="4">
         <v>1</v>
@@ -918,7 +918,7 @@
     </row>
     <row r="16" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16" s="4">
         <v>1</v>
@@ -926,7 +926,7 @@
     </row>
     <row r="17" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17" s="4">
         <v>1</v>
@@ -934,7 +934,7 @@
     </row>
     <row r="18" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B18" s="4">
         <v>1</v>
@@ -942,7 +942,7 @@
     </row>
     <row r="19" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B19" s="4">
         <v>3000</v>
@@ -950,7 +950,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" s="4">
         <v>1</v>
@@ -958,7 +958,7 @@
     </row>
     <row r="21" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B21" s="4">
         <v>1</v>
@@ -966,7 +966,7 @@
     </row>
     <row r="22" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B22" s="4">
         <v>1</v>
@@ -974,7 +974,7 @@
     </row>
     <row r="23" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B23" s="4">
         <v>100</v>
@@ -982,7 +982,7 @@
     </row>
     <row r="24" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B24" s="4">
         <v>100</v>
@@ -990,7 +990,7 @@
     </row>
     <row r="25" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B25" s="4">
         <v>100</v>
@@ -998,7 +998,7 @@
     </row>
     <row r="26" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B26" s="4">
         <v>100</v>
@@ -1006,7 +1006,7 @@
     </row>
     <row r="27" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B27" s="4">
         <v>10</v>
@@ -1014,7 +1014,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B28" s="4">
         <v>250</v>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="29" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B29" s="4">
         <v>6</v>
@@ -1030,7 +1030,7 @@
     </row>
     <row r="30" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B30" s="4">
         <v>6</v>

--- a/Templates.xlsx
+++ b/Templates.xlsx
@@ -23,131 +23,131 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
   <si>
+    <t>Item Name</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Borewell Developing Charges</t>
+  </si>
+  <si>
+    <t>Supply Fitting of ISI UPVC Pipe 40mm dia</t>
+  </si>
+  <si>
+    <t>Supply Fitting of Nylon Rope 14mm thick</t>
+  </si>
+  <si>
+    <t>Pump erection charge upto 3hp</t>
+  </si>
+  <si>
+    <t>Supply fitting of NRV 40mm</t>
+  </si>
+  <si>
+    <t>Supply Fitting of SS Adaptor 40mm dia</t>
+  </si>
+  <si>
+    <t>Fabrication and Installation of Well Protection Cover</t>
+  </si>
+  <si>
+    <t>Fabrication and Installation of Metallic pump house 1.2 x 0.9 x 2m</t>
+  </si>
+  <si>
+    <t>Fabrication and Installation of Panel board Single phase</t>
+  </si>
+  <si>
+    <t>Fabrication and Installation of Iron Structure 4m for 3000 ltr water tank</t>
+  </si>
+  <si>
+    <t>Supply fitting of ISI PVC Water Tank</t>
+  </si>
+  <si>
+    <t>Tank connector 50mm</t>
+  </si>
+  <si>
+    <t>Tank connector 40mm</t>
+  </si>
+  <si>
+    <t>Supply fitting of PVC ball valve 50mm</t>
+  </si>
+  <si>
+    <t>Supply fitting of PVC ball valve 40mm</t>
+  </si>
+  <si>
+    <t>Providing and fixing ISI PVC Pipes includes jointing of pipes with one step PVC solvent cement, trenching, refilling &amp; testing of joints complete as per direction of Engineer in Charge 50mm 10kg/cm2.</t>
+  </si>
+  <si>
+    <t>Providing and fixing ISI PVC Pipes includes jointing of pipes with one step PVC solvent cement, trenching, refilling &amp; testing of joints complete as per direction of Engineer in Charge 40mm 10kg/cm2.</t>
+  </si>
+  <si>
+    <t>Providing and fixing ISI PVC Pipes includes jointing of pipes with one step PVC solvent cement, trenching, refilling &amp; testing of joints complete as per direction of Engineer in Charge 32mm 10kg/cm2.</t>
+  </si>
+  <si>
+    <t>Providing and fixing ISI PVC Pipes includes jointing of pipes with one step PVC solvent cement, trenching, refilling &amp; testing of joints complete as per direction of Engineer in Charge 25mm 10kg/cm2.</t>
+  </si>
+  <si>
+    <t>Fabrication and Installation of Individual Hydrants with tap</t>
+  </si>
+  <si>
+    <t>Trenching for pipe laying</t>
+  </si>
+  <si>
+    <t>Concrete Cutting for pipe laying in m3</t>
+  </si>
+  <si>
+    <t>Providing and laying in position cement concrete Filling 1:2:4 in m3</t>
+  </si>
+  <si>
+    <t>Supply of Compressor Pump 1.5hp single phase ISI</t>
+  </si>
+  <si>
+    <t>Compressor Pump Fitting charge</t>
+  </si>
+  <si>
+    <t>GI pipe including providing, fitting, conveyance etc (With Trenching) 25mm pipe</t>
+  </si>
+  <si>
+    <t>Supply Fitting of HDPE ISI Pipe w/o data 20mm dia</t>
+  </si>
+  <si>
+    <t>Supply Fitting of ISI UPVC Pipe 32mm dia</t>
+  </si>
+  <si>
+    <t>Supply fitting of GI Union 32mm</t>
+  </si>
+  <si>
+    <t>Supply fitting of GI Bend 32mm</t>
+  </si>
+  <si>
+    <t>Fabrication and Installation of Metallic pump cover 1 x 0.8 x 0.9m</t>
+  </si>
+  <si>
+    <t>Supply Fitting of Submersible Pump Single Phase - 1.5hp 18 stage 107-30m head ISI</t>
+  </si>
+  <si>
+    <t>Supply Fitting of Submersible 3 Core Cable ISI 4mm</t>
+  </si>
+  <si>
     <t>Earth work in excavation by mechanical means (Hydraulic excavator) /manual means in foundation trenches or drains (not exceeding 1.5 m in width or 10 sqm on plan), including dressing of sides and ramming of bottoms, lift up to 1.5 m, including getting out the excavated soil and disposal of surplus excavated soil as directed, within a lead of 50 m.
-All kinds of soil (PRICE Code: 2.8.1)</t>
+All kinds of soil (Code: 2.8.1)</t>
+  </si>
+  <si>
+    <t>Providing and laying in position cement concrete of specified grade excluding the cost of centering and shuttering - All work up to plinth level:
+1:2:4 (cement : 2 coarse sand : 4 graded stone aggregate 20mm nominal size) (Code: 4.1.3)</t>
+  </si>
+  <si>
+    <t>Providing and laying in position specified grade of reinforced cement concrete, excluding the cost of centering, shuttering, finishing and reinforcement - All work up to plinth level:
+1:2:4 ( 1 cement : 2 coarse sand : 4 graded stone aggregate 20mm nominal size) (Code: 5.1.3)</t>
   </si>
   <si>
     <t>Steel reinforcement for R.C.C work including straightening, cutting, bending, placing in position and binding all complete upto plinth level
-Mild steel and Medium Tensile steel bars (PRICE Code: 5.22.1)</t>
-  </si>
-  <si>
-    <t>Structural steel work in single section, fixed with or without connecting plate, including cutting, hoisting, fixing in position and applying a priming coat of approved steel primer all complete. (PRICE Code: 10.1)</t>
-  </si>
-  <si>
-    <t>Providing and fixing bolts including nuts and washers complete. (PRICE Code: 10.2)</t>
-  </si>
-  <si>
-    <t>Item Name</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Borewell Developing Charges</t>
-  </si>
-  <si>
-    <t>Supply Fitting of ISI UPVC Pipe 40mm dia</t>
-  </si>
-  <si>
-    <t>Supply Fitting of Nylon Rope 14mm thick</t>
-  </si>
-  <si>
-    <t>Pump erection charge upto 3hp</t>
-  </si>
-  <si>
-    <t>Supply fitting of NRV 40mm</t>
-  </si>
-  <si>
-    <t>Supply Fitting of SS Adaptor 40mm dia</t>
-  </si>
-  <si>
-    <t>Fabrication and Installation of Well Protection Cover</t>
-  </si>
-  <si>
-    <t>Fabrication and Installation of Metallic pump house 1.2 x 0.9 x 2m</t>
-  </si>
-  <si>
-    <t>Fabrication and Installation of Panel board Single phase</t>
-  </si>
-  <si>
-    <t>Fabrication and Installation of Iron Structure 4m for 3000 ltr water tank</t>
-  </si>
-  <si>
-    <t>Supply fitting of ISI PVC Water Tank</t>
-  </si>
-  <si>
-    <t>Tank connector 50mm</t>
-  </si>
-  <si>
-    <t>Tank connector 40mm</t>
-  </si>
-  <si>
-    <t>Supply fitting of PVC ball valve 50mm</t>
-  </si>
-  <si>
-    <t>Supply fitting of PVC ball valve 40mm</t>
-  </si>
-  <si>
-    <t>Providing and fixing ISI PVC Pipes includes jointing of pipes with one step PVC solvent cement, trenching, refilling &amp; testing of joints complete as per direction of Engineer in Charge 50mm 10kg/cm2.</t>
-  </si>
-  <si>
-    <t>Providing and fixing ISI PVC Pipes includes jointing of pipes with one step PVC solvent cement, trenching, refilling &amp; testing of joints complete as per direction of Engineer in Charge 40mm 10kg/cm2.</t>
-  </si>
-  <si>
-    <t>Providing and fixing ISI PVC Pipes includes jointing of pipes with one step PVC solvent cement, trenching, refilling &amp; testing of joints complete as per direction of Engineer in Charge 32mm 10kg/cm2.</t>
-  </si>
-  <si>
-    <t>Providing and fixing ISI PVC Pipes includes jointing of pipes with one step PVC solvent cement, trenching, refilling &amp; testing of joints complete as per direction of Engineer in Charge 25mm 10kg/cm2.</t>
-  </si>
-  <si>
-    <t>Fabrication and Installation of Individual Hydrants with tap</t>
-  </si>
-  <si>
-    <t>Trenching for pipe laying</t>
-  </si>
-  <si>
-    <t>Concrete Cutting for pipe laying in m3</t>
-  </si>
-  <si>
-    <t>Providing and laying in position cement concrete Filling 1:2:4 in m3</t>
-  </si>
-  <si>
-    <t>Supply of Compressor Pump 1.5hp single phase ISI</t>
-  </si>
-  <si>
-    <t>Compressor Pump Fitting charge</t>
-  </si>
-  <si>
-    <t>GI pipe including providing, fitting, conveyance etc (With Trenching) 25mm pipe</t>
-  </si>
-  <si>
-    <t>Supply Fitting of HDPE ISI Pipe w/o data 20mm dia</t>
-  </si>
-  <si>
-    <t>Supply Fitting of ISI UPVC Pipe 32mm dia</t>
-  </si>
-  <si>
-    <t>Supply fitting of GI Union 32mm</t>
-  </si>
-  <si>
-    <t>Supply fitting of GI Bend 32mm</t>
-  </si>
-  <si>
-    <t>Fabrication and Installation of Metallic pump cover 1 x 0.8 x 0.9m</t>
-  </si>
-  <si>
-    <t>Supply Fitting of Submersible Pump Single Phase - 1.5hp 18 stage 107-30m head ISI</t>
-  </si>
-  <si>
-    <t>Supply Fitting of Submersible 3 Core Cable ISI 4mm</t>
-  </si>
-  <si>
-    <t>Providing and laying in position cement concrete of specified grade excluding the cost of centering and shuttering - All work up to plinth level:
-1:2:4 (cement : 2 coarse sand : 4 graded stone aggregate 20mm nominal size) (PRICE Code: 4.1.3)</t>
-  </si>
-  <si>
-    <t>Providing and laying in position specified grade of reinforced cement concrete, excluding the cost of centering, shuttering, finishing and reinforcement - All work up to plinth level:
-1:2:4 ( 1 cement : 2 coarse sand : 4 graded stone aggregate 20mm nominal size) (PRICE Code: 5.1.3)</t>
+Mild steel and Medium Tensile steel bars (Code: 5.22.1)</t>
+  </si>
+  <si>
+    <t>Structural steel work in single section, fixed with or without connecting plate, including cutting, hoisting, fixing in position and applying a priming coat of approved steel primer all complete. (Code: 10.1)</t>
+  </si>
+  <si>
+    <t>Providing and fixing bolts including nuts and washers complete. (Code: 10.2)</t>
   </si>
 </sst>
 </file>
@@ -472,7 +472,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -482,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -494,15 +494,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -510,7 +510,7 @@
     </row>
     <row r="3" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
@@ -518,7 +518,7 @@
     </row>
     <row r="4" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B4" s="3">
         <v>3</v>
@@ -526,7 +526,7 @@
     </row>
     <row r="5" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="B5" s="3">
         <v>4</v>
@@ -534,7 +534,7 @@
     </row>
     <row r="6" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="B6" s="3">
         <v>5</v>
@@ -542,7 +542,7 @@
     </row>
     <row r="7" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="B7" s="3">
         <v>6</v>
@@ -571,15 +571,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="3" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="4" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2">
         <v>80</v>
@@ -603,7 +603,7 @@
     </row>
     <row r="5" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2">
         <v>85</v>
@@ -611,7 +611,7 @@
     </row>
     <row r="6" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B6" s="2">
         <v>85</v>
@@ -619,7 +619,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
@@ -627,7 +627,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
@@ -635,7 +635,7 @@
     </row>
     <row r="9" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
@@ -643,7 +643,7 @@
     </row>
     <row r="10" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
@@ -651,7 +651,7 @@
     </row>
     <row r="11" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
@@ -659,7 +659,7 @@
     </row>
     <row r="12" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
@@ -667,7 +667,7 @@
     </row>
     <row r="13" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2">
         <v>1</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2">
         <v>3000</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
@@ -691,7 +691,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
@@ -699,7 +699,7 @@
     </row>
     <row r="17" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2">
         <v>1</v>
@@ -707,7 +707,7 @@
     </row>
     <row r="18" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2">
         <v>1</v>
@@ -715,7 +715,7 @@
     </row>
     <row r="19" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2">
         <v>50</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="20" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2">
         <v>50</v>
@@ -731,7 +731,7 @@
     </row>
     <row r="21" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2">
         <v>50</v>
@@ -739,7 +739,7 @@
     </row>
     <row r="22" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2">
         <v>50</v>
@@ -747,7 +747,7 @@
     </row>
     <row r="23" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2">
         <v>10</v>
@@ -755,7 +755,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2">
         <v>100</v>
@@ -763,7 +763,7 @@
     </row>
     <row r="25" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2">
         <v>4</v>
@@ -771,7 +771,7 @@
     </row>
     <row r="26" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B26" s="2">
         <v>4</v>
@@ -798,15 +798,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -814,7 +814,7 @@
     </row>
     <row r="3" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B3" s="4">
         <v>1</v>
@@ -822,7 +822,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
@@ -830,7 +830,7 @@
     </row>
     <row r="5" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B5" s="4">
         <v>15</v>
@@ -838,7 +838,7 @@
     </row>
     <row r="6" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B6" s="4">
         <v>50</v>
@@ -846,7 +846,7 @@
     </row>
     <row r="7" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B7" s="4">
         <v>60</v>
@@ -854,7 +854,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
@@ -862,7 +862,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B9" s="4">
         <v>1</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="10" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B10" s="4">
         <v>65</v>
@@ -878,7 +878,7 @@
     </row>
     <row r="11" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B11" s="4">
         <v>20</v>
@@ -886,7 +886,7 @@
     </row>
     <row r="12" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B12" s="4">
         <v>1</v>
@@ -894,7 +894,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B13" s="4">
         <v>1</v>
@@ -902,7 +902,7 @@
     </row>
     <row r="14" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B14" s="4">
         <v>1</v>
@@ -910,7 +910,7 @@
     </row>
     <row r="15" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B15" s="4">
         <v>1</v>
@@ -918,7 +918,7 @@
     </row>
     <row r="16" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B16" s="4">
         <v>1</v>
@@ -926,7 +926,7 @@
     </row>
     <row r="17" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B17" s="4">
         <v>1</v>
@@ -934,7 +934,7 @@
     </row>
     <row r="18" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B18" s="4">
         <v>1</v>
@@ -942,7 +942,7 @@
     </row>
     <row r="19" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B19" s="4">
         <v>3000</v>
@@ -950,7 +950,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B20" s="4">
         <v>1</v>
@@ -958,7 +958,7 @@
     </row>
     <row r="21" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B21" s="4">
         <v>1</v>
@@ -966,7 +966,7 @@
     </row>
     <row r="22" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B22" s="4">
         <v>1</v>
@@ -974,7 +974,7 @@
     </row>
     <row r="23" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B23" s="4">
         <v>100</v>
@@ -982,7 +982,7 @@
     </row>
     <row r="24" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B24" s="4">
         <v>100</v>
@@ -990,7 +990,7 @@
     </row>
     <row r="25" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B25" s="4">
         <v>100</v>
@@ -998,7 +998,7 @@
     </row>
     <row r="26" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B26" s="4">
         <v>100</v>
@@ -1006,7 +1006,7 @@
     </row>
     <row r="27" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B27" s="4">
         <v>10</v>
@@ -1014,7 +1014,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B28" s="4">
         <v>250</v>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="29" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B29" s="4">
         <v>6</v>
@@ -1030,7 +1030,7 @@
     </row>
     <row r="30" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B30" s="4">
         <v>6</v>

--- a/Templates.xlsx
+++ b/Templates.xlsx
@@ -147,7 +147,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -155,44 +155,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -466,7 +440,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -477,221 +451,219 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="2"/>
-    <col min="3" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="2">
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="116" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="2">
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="87" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="2">
         <v>3000</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="116" x14ac:dyDescent="0.35">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="2">
         <v>4</v>
       </c>
     </row>
@@ -705,252 +677,252 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="38" style="4" customWidth="1"/>
-    <col min="2" max="16384" width="8.7265625" style="4"/>
+    <col min="1" max="2" width="8.7265625" style="3"/>
+    <col min="3" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="3">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="3">
         <v>3000</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="87" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="87" x14ac:dyDescent="0.35">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="87" x14ac:dyDescent="0.35">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="87" x14ac:dyDescent="0.35">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="3">
         <v>250</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="87" x14ac:dyDescent="0.35">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="87" x14ac:dyDescent="0.35">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="3">
         <v>6</v>
       </c>
     </row>

--- a/Templates.xlsx
+++ b/Templates.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Core i5 GAMING\Desktop\estimate-drafter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DC056E28-6082-474E-9404-6924CAB617B8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1E857EAE-18DB-4F30-B4A9-71880B2BB8F0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="180" windowWidth="9855" windowHeight="7215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15" yWindow="180" windowWidth="9855" windowHeight="7215" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MWSS with Submersible Pump" sheetId="2" r:id="rId1"/>
     <sheet name="MWSS with Compressor Pump" sheetId="3" r:id="rId2"/>
+    <sheet name="110 mm BWC" sheetId="4" r:id="rId3"/>
+    <sheet name="150 mm BWC" sheetId="5" r:id="rId4"/>
+    <sheet name="150 mm TWC" sheetId="6" r:id="rId5"/>
+    <sheet name="200 mm TWC" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
   <si>
     <t>Item Name</t>
   </si>
@@ -130,6 +134,57 @@
   </si>
   <si>
     <t>GI Bend 32 mm (Code: GWD128)</t>
+  </si>
+  <si>
+    <t>110mm (4.5") Borewell Drilling (Code: GWD248)</t>
+  </si>
+  <si>
+    <t>Supplying, assembling, lowering and fixing in vertical position in Borewell, PVC 140 mm 6 Kg/cm2 well casing pipe of required dia, conforming to IS : 4985:2000, including required hire and labour charges, fittings &amp; accessories etc. all complete, for all depths, as per direction of Engineer- in- Charge. (Code: GWD007)</t>
+  </si>
+  <si>
+    <t>PVC End cap 140 mm (Code: GWD065)</t>
+  </si>
+  <si>
+    <t>150mm (6") Borewell Drilling (Code: GWD249)</t>
+  </si>
+  <si>
+    <t>Supplying, assembling, lowering and fixing in vertical position in Borewell, PVC 180mm 10 Kg/cm2 well casing pipe of required dia, conforming to IS : 4985:2000, including required hire and labour charges, fittings &amp; accessories etc. all complete, for all depths, as per direction of Engineer- in- Charge. (Code: GWD017)</t>
+  </si>
+  <si>
+    <t>PVC End Cap 180 mm (Code: GWD067)</t>
+  </si>
+  <si>
+    <t>150mm (6") Tubewell Drilling (Code: GWD250)</t>
+  </si>
+  <si>
+    <t>Supplying, assembling, lowering and fixing in vertical position in bore well, unplasticized PVC medium well casing (CM) pipe of required dia, conforming to IS : 12818, including required hire and labour charges, fittings &amp; accessories etc. all complete, for all depths, as per direction of Engineer- in- Charge. 150 mm nominal size dia (Code: 23.3.2)</t>
+  </si>
+  <si>
+    <t>Supplying, assembling, lowering and fixing in vertical position in bore well unplasticized PVC medium well screen (RMS) pipes with ribs, conforming to IS: 12818, including hire &amp; labour charges, fittings &amp; accessories etc. all complete, for all depths, as per direction of Engineer - in-charge 150 mm nominal size dia (Code: 23.4.2)</t>
+  </si>
+  <si>
+    <t>Providing and fixing Bail plug / Bottom plug of required dia to the bottom of pipe assembly of tubewell as per IS : 2800 (part I). 150 mm dia (Code: 23.15.2)</t>
+  </si>
+  <si>
+    <t>150 mm MS end cap (7747) Basic Rate (Code: GWD024)</t>
+  </si>
+  <si>
+    <t>Tubewell Drilling over 150mm (6") (Code: GWD251)</t>
+  </si>
+  <si>
+    <t>Supplying, assembling, lowering and fixing in vertical position in bore well, unplasticized PVC medium well casing (CM) pipe of required dia, conforming to IS : 12818, including required hire and labour charges, fittings &amp; accessories etc. all complete, for all depths, as per direction of Engineer- in- Charge. 200 mm nominal size dia (Code: 23.3.3)</t>
+  </si>
+  <si>
+    <t>Supplying, assembling, lowering and fixing in vertical position in bore well unplasticized PVC medium well screen (RMS) pipes with ribs, conforming to IS: 12818, including hire &amp; labour charges, fittings &amp; accessories etc. all complete, for all depths, as per direction of Engineer - in-charge 200 mm nominal size dia (Code: 23.4.3)</t>
+  </si>
+  <si>
+    <t>Providing and fixing Bail plug / Bottom plug of required dia to the bottom of pipe assembly of tubewell as per IS : 2800 (part I). 200 mm dia (Code: 23.15.3)</t>
+  </si>
+  <si>
+    <t>200 mm MS end cap (7748) Basic Rate (Code: GWD020)</t>
+  </si>
+  <si>
+    <t>MS Casing pipe 450 mm dia, 6 mm thickness (Code: GWD203)</t>
   </si>
 </sst>
 </file>
@@ -453,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -933,4 +988,241 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{283C56C8-5101-4528-9234-DFAFA8B3C182}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE8597B7-0160-4D8F-B8C8-FDE4C5B94C30}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9BB96C7-B819-4358-9077-88E63A141CF4}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F52A1A6B-7BA3-45B8-8EF7-73A16298341E}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Templates.xlsx
+++ b/Templates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Core i5 GAMING\Desktop\estimate-drafter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1E857EAE-18DB-4F30-B4A9-71880B2BB8F0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9BF0E7E6-7B67-4AC7-AF77-58F1B1C598F2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="180" windowWidth="9855" windowHeight="7215" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="150 mm TWC" sheetId="6" r:id="rId5"/>
     <sheet name="200 mm TWC" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="179021" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,32 +38,9 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>Supply and drawing FRLS PVC insulated &amp; sheathed 650/1100 V grade 3 core copper conductor flat cable for submersible pump motor conforming to IS 694 part I 1990 as required including giving necessary connections of the following sizes.
-4 sq mm (Code: 90.6.6.3)</t>
-  </si>
-  <si>
-    <t>Providing and fixing gun metal non-return valve of approved quality (screwed end): 40 mm nominal bore Horizontal (Code: 18.19.3.1)</t>
-  </si>
-  <si>
-    <t>S &amp; F Motor starters of the following ratings
-Submersible pump controllers with ammeter,DPMCB for single phase 2 HP submersible motor pumps (DOL) (Code: 90.14.28.13)</t>
-  </si>
-  <si>
     <t>Providing and placing on terrace (at all floor levels) polyethylene water storage tank :ISI 12701 marked, with cover and suitable locking arrangement and making necessary holes for inlet, outlet and overflow pipes but without fittings and the base support for tank. (Code: 18.48)</t>
   </si>
   <si>
-    <t>Providing and fixing PVC pipes includings jointing of pipes with one step PVC solvent cement, trenching, refilling &amp; testing of joints complete as per direction of Engineer in Charge. 50 mm dia 10Kgf/cm2 (Code: 50.18.9.6.1)</t>
-  </si>
-  <si>
-    <t>Providing and fixing PVC pipes includings jointing of pipes with one step PVC solvent cement, trenching refilling &amp; testing of joints complete as per direction of Engineer in Charge 40 mm dia 10Kgf/cm2 (Code: 50.18.9.5.1)</t>
-  </si>
-  <si>
-    <t>Providing and fixing PVC pipes includings jointing of pipes with one step PVC solvent cement, trenching, refilling &amp; testing of joints complete as per direction of Engineer in Charge.32 mm dia 10.Kgf/cm2 (Code: 50.18.9.4.1)</t>
-  </si>
-  <si>
-    <t>Providing and fixing PVC pipes includes jointing of pipes with one step PVC solvent cement, trenching, refilling &amp; testing of joints complete as per direction of Engineer in Charge. 25 mm dia 10KGF/cm2 (Code: 50.18.9.3.2)</t>
-  </si>
-  <si>
     <t>Excavating trenches of required width for pipes, cables, etc including excavation for sockets, and dressing of sides, ramming of bottoms, depth up to 1.5 m, including getting out the excavated soil. and then returning the soil as required, in layers not exceeding 20 cm in depth, including consolidating each deposited layer by ramming, watering, etc. and disposing of surplus excavated soil as directed, within a lead of 50 m: All kinds of soil Pipes, cables etc, not exceeding 80 mm dia (Code: 2.10.1.1)</t>
   </si>
   <si>
@@ -73,30 +50,6 @@
     <t>Providing and laying in position cement concrete of specified grade excluding the cost of centering and shuttering - All work up to plinth level: 1:2:4 )1 cement : 2 coarse sand : 4 graded stone aggregate 40 mm nominal size) (Code: 4.1.4)</t>
   </si>
   <si>
-    <t>Providing and fixing G.I. pipes complete with G.I fittings including trenching and refilling etc. External work 25 mm dia nominal bore (Code: 18.12.3)</t>
-  </si>
-  <si>
-    <t>Providing and fixing G.I. Union in G.I pipe including cutting and threading the pipe and making long screws etc. complete ( New work): 32 mm nominal bore (Code: 18.46.4)</t>
-  </si>
-  <si>
-    <t>Flushing (Developing) Borewell (Code: GWD253)</t>
-  </si>
-  <si>
-    <t>2 HP 18 Stage 120-40 m head single phase pump including panel board (Code: GWD149)</t>
-  </si>
-  <si>
-    <t>40 mm dia UPVC pipe (Code: GWD184)</t>
-  </si>
-  <si>
-    <t>14 mm thick nylon rope (Code: GWD180)</t>
-  </si>
-  <si>
-    <t>Borewell submersible pump erection charges upto 3 HP (Code: GWD045)</t>
-  </si>
-  <si>
-    <t>40 mm SS Adapter (Code: GWD193)</t>
-  </si>
-  <si>
     <t>Well Protection Cover (Code: GWD001)</t>
   </si>
   <si>
@@ -106,94 +59,146 @@
     <t>Estimate For Fabricated Angle Iron Structure To Support 3000 Litres Capacity Water Tank At 4 m Height (Code: GWD003)</t>
   </si>
   <si>
-    <t>PVC Tank connector 40 mm (Code: GWD111)</t>
-  </si>
-  <si>
-    <t>PVC Tank connector 50 mm (Code: GWD112)</t>
-  </si>
-  <si>
-    <t>PVC Ball valve 40 mm (Code: GWD118)</t>
-  </si>
-  <si>
-    <t>PVC Ball valve 50 mm (Code: GWD119)</t>
-  </si>
-  <si>
-    <t>Hydrants with tap ( for individual families of size 0.6 X 0.3 M platform) (Code: GWD058)</t>
-  </si>
-  <si>
-    <t>Compressor pump 2 HP single phase (Code: GWD171)</t>
-  </si>
-  <si>
-    <t>Compressor pump fitting charge (Code: GWD051)</t>
-  </si>
-  <si>
-    <t>20 mm dia HDPE pipe (DG) (8kg) (Code: GWD187)</t>
-  </si>
-  <si>
-    <t>32 mm dia UPVC pipe (Code: GWD183)</t>
-  </si>
-  <si>
-    <t>GI Bend 32 mm (Code: GWD128)</t>
-  </si>
-  <si>
-    <t>110mm (4.5") Borewell Drilling (Code: GWD248)</t>
-  </si>
-  <si>
     <t>Supplying, assembling, lowering and fixing in vertical position in Borewell, PVC 140 mm 6 Kg/cm2 well casing pipe of required dia, conforming to IS : 4985:2000, including required hire and labour charges, fittings &amp; accessories etc. all complete, for all depths, as per direction of Engineer- in- Charge. (Code: GWD007)</t>
   </si>
   <si>
-    <t>PVC End cap 140 mm (Code: GWD065)</t>
-  </si>
-  <si>
-    <t>150mm (6") Borewell Drilling (Code: GWD249)</t>
-  </si>
-  <si>
     <t>Supplying, assembling, lowering and fixing in vertical position in Borewell, PVC 180mm 10 Kg/cm2 well casing pipe of required dia, conforming to IS : 4985:2000, including required hire and labour charges, fittings &amp; accessories etc. all complete, for all depths, as per direction of Engineer- in- Charge. (Code: GWD017)</t>
   </si>
   <si>
-    <t>PVC End Cap 180 mm (Code: GWD067)</t>
-  </si>
-  <si>
-    <t>150mm (6") Tubewell Drilling (Code: GWD250)</t>
-  </si>
-  <si>
-    <t>Supplying, assembling, lowering and fixing in vertical position in bore well, unplasticized PVC medium well casing (CM) pipe of required dia, conforming to IS : 12818, including required hire and labour charges, fittings &amp; accessories etc. all complete, for all depths, as per direction of Engineer- in- Charge. 150 mm nominal size dia (Code: 23.3.2)</t>
-  </si>
-  <si>
-    <t>Supplying, assembling, lowering and fixing in vertical position in bore well unplasticized PVC medium well screen (RMS) pipes with ribs, conforming to IS: 12818, including hire &amp; labour charges, fittings &amp; accessories etc. all complete, for all depths, as per direction of Engineer - in-charge 150 mm nominal size dia (Code: 23.4.2)</t>
-  </si>
-  <si>
-    <t>Providing and fixing Bail plug / Bottom plug of required dia to the bottom of pipe assembly of tubewell as per IS : 2800 (part I). 150 mm dia (Code: 23.15.2)</t>
-  </si>
-  <si>
-    <t>150 mm MS end cap (7747) Basic Rate (Code: GWD024)</t>
-  </si>
-  <si>
-    <t>Tubewell Drilling over 150mm (6") (Code: GWD251)</t>
-  </si>
-  <si>
-    <t>Supplying, assembling, lowering and fixing in vertical position in bore well, unplasticized PVC medium well casing (CM) pipe of required dia, conforming to IS : 12818, including required hire and labour charges, fittings &amp; accessories etc. all complete, for all depths, as per direction of Engineer- in- Charge. 200 mm nominal size dia (Code: 23.3.3)</t>
-  </si>
-  <si>
-    <t>Supplying, assembling, lowering and fixing in vertical position in bore well unplasticized PVC medium well screen (RMS) pipes with ribs, conforming to IS: 12818, including hire &amp; labour charges, fittings &amp; accessories etc. all complete, for all depths, as per direction of Engineer - in-charge 200 mm nominal size dia (Code: 23.4.3)</t>
-  </si>
-  <si>
-    <t>Providing and fixing Bail plug / Bottom plug of required dia to the bottom of pipe assembly of tubewell as per IS : 2800 (part I). 200 mm dia (Code: 23.15.3)</t>
-  </si>
-  <si>
-    <t>200 mm MS end cap (7748) Basic Rate (Code: GWD020)</t>
-  </si>
-  <si>
-    <t>MS Casing pipe 450 mm dia, 6 mm thickness (Code: GWD203)</t>
+    <t>Flushing (Developing) Borewell (Code: GWD105)</t>
+  </si>
+  <si>
+    <t>2 HP 18 Stage 120-40 m head single phase pump including panel board (Code: GWDMR073)</t>
+  </si>
+  <si>
+    <t>40 mm dia UPVC pipe (Code: GWDMR103)</t>
+  </si>
+  <si>
+    <t>14 mm thick nylon rope (Code: GWDMR099)</t>
+  </si>
+  <si>
+    <t>Supply and drawing FRLS PVC insulated &amp; sheathed 650/1100 V grade 3 core copper conductor flat cable for submersible pump motor conforming to IS 694 part I 1990 as required including giving necessary connections of the following sizes. 4 sq mm (90.6.6.3) (Code: GWD117)</t>
+  </si>
+  <si>
+    <t>Borewell submersible pump erection charges upto 3 HP (Code: GWD049)</t>
+  </si>
+  <si>
+    <t>Providing and fixing gun metal non-return valve of approved quality (screwed end): 40 mm nominal bore Horizontal (18.19.3.1) (Code: GWD259)</t>
+  </si>
+  <si>
+    <t>40 mm SS Adapter (Code: GWDMR110)</t>
+  </si>
+  <si>
+    <t>S &amp; F Motor starters of the following ratings Submersible pump controllers with ammeter,DPMCB for single phase 2 HP submersible motor pumps (DOL) (90.14.28.13) (Code: GWD134)</t>
+  </si>
+  <si>
+    <t>PVC Tank connector 40 mm (Code: GWDMR035)</t>
+  </si>
+  <si>
+    <t>PVC Tank connector 50 mm (Code: GWDMR036)</t>
+  </si>
+  <si>
+    <t>PVC Ball valve 50 mm (Code: GWDMR043)</t>
+  </si>
+  <si>
+    <t>Providing and fixing PVC pipes includings jointing of pipes with one step PVC solvent cement, trenching, refilling &amp; testing of joints complete as per direction of Engineer in Charge. 50 mm dia 10Kgf/cm2 (50.18.9.6.1) (Code: GWD192)</t>
+  </si>
+  <si>
+    <t>Providing and fixing PVC pipes includings jointing of pipes with one step PVC solvent cement, trenching refilling &amp; testing of joints complete as per direction of Engineer in Charge 40 mm dia 10Kgf/cm2 (50.18.9.5.1) (Code: GWD190)</t>
+  </si>
+  <si>
+    <t>Providing and fixing PVC pipes includings jointing of pipes with one step PVC solvent cement, trenching, refilling &amp; testing of joints complete as per direction of Engineer in Charge.32 mm dia 10.Kgf/cm2 (50.18.9.4.1) (Code: GWD188)</t>
+  </si>
+  <si>
+    <t>Providing and fixing PVC pipes includes jointing of pipes with one step PVC solvent cement, trenching, refilling &amp; testing of joints complete as per direction of Engineer in Charge. 25 mm dia 10KGF/cm2 (50.18.9.3.2) (Code: GWD187)</t>
+  </si>
+  <si>
+    <t>Hydrants with tap ( for individual families of size 0.6 X 0.3 M platform) (Code: GWD062)</t>
+  </si>
+  <si>
+    <t>PVC Ball valve 40 mm (Code: GWDMR042)</t>
+  </si>
+  <si>
+    <t>Compressor pump 2 HP single phase (Code: GWDMR095)</t>
+  </si>
+  <si>
+    <t>Compressor pump fitting charge (Code: GWD055)</t>
+  </si>
+  <si>
+    <t>Providing and fixing G.I. pipes complete with G.I fittings including trenching and refilling etc. External work 25 mm dia nominal bore (18.12.3) (Code: GWD242)</t>
+  </si>
+  <si>
+    <t>20 mm dia HDPE pipe (DG) (8kg) (Code: GWDMR106)</t>
+  </si>
+  <si>
+    <t>32 mm dia UPVC pipe (Code: GWDMR102)</t>
+  </si>
+  <si>
+    <t>Providing and fixing G.I. Union in G.I pipe including cutting and threading the pipe and making long screws etc. complete ( New work): 32 mm nominal bore (18.46.4) (Code: GWD270)</t>
+  </si>
+  <si>
+    <t>GI Bend 32 mm (Code: GWDMR052)</t>
+  </si>
+  <si>
+    <t>110mm (4.5") Borewell Drilling (Code: GWD100)</t>
+  </si>
+  <si>
+    <t>PVC End cap 140 mm (DG) (Code: GWDMR003)</t>
+  </si>
+  <si>
+    <t>150mm (6") Borewell Drilling (Code: GWD101)</t>
+  </si>
+  <si>
+    <t>PVC End Cap 180 mm (DG) (Code: GWDMR005)</t>
+  </si>
+  <si>
+    <t>150mm (6") Tubewell Drilling (Code: GWD102)</t>
+  </si>
+  <si>
+    <t>Supplying, assembling, lowering and fixing in vertical position in bore well, unplasticized PVC medium well casing (CM) pipe of required dia, conforming to IS : 12818, including required hire and labour charges, fittings &amp; accessories etc. all complete, for all depths, as per direction of Engineer- in- Charge. 150 mm nominal size dia (23.3.2) (Code: GWD022)</t>
+  </si>
+  <si>
+    <t>Supplying, assembling, lowering and fixing in vertical position in bore well unplasticized PVC medium well screen (RMS) pipes with ribs, conforming to IS: 12818, including hire &amp; labour charges, fittings &amp; accessories etc. all complete, for all depths, as per direction of Engineer - in-charge 150 mm nominal size dia (23.4.2) (Code: GWD023)</t>
+  </si>
+  <si>
+    <t>Providing and fixing Bail plug / Bottom plug of required dia to the bottom of pipe assembly of tubewell as per IS : 2800 (part I). 150 mm dia (23.15.2) (Code: GWD025)</t>
+  </si>
+  <si>
+    <t>M.S. cap 150 mm dia (7747 - Water Charge and CPOH Added) (Code: GWD024)</t>
+  </si>
+  <si>
+    <t>MS Casing pipe 450 mm dia, 6 mm thickness (Code: GWDMR117)</t>
+  </si>
+  <si>
+    <t>Tubewell Drilling 200mm (8") (Code: GWD103)</t>
+  </si>
+  <si>
+    <t>Supplying, assembling, lowering and fixing in vertical position in bore well, unplasticized PVC medium well casing (CM) pipe of required dia, conforming to IS : 12818, including required hire and labour charges, fittings &amp; accessories etc. all complete, for all depths, as per direction of Engineer- in- Charge. 200 mm nominal size dia (23.3.3) (Code: GWD018)</t>
+  </si>
+  <si>
+    <t>Supplying, assembling, lowering and fixing in vertical position in bore well unplasticized PVC medium well screen (RMS) pipes with ribs, conforming to IS: 12818, including hire &amp; labour charges, fittings &amp; accessories etc. all complete, for all depths, as per direction of Engineer - in-charge 200 mm nominal size dia (23.4.3) (Code: GWD019)</t>
+  </si>
+  <si>
+    <t>Providing and fixing Bail plug / Bottom plug of required dia to the bottom of pipe assembly of tubewell as per IS : 2800 (part I). 200 mm dia (23.15.3) (Code: GWD021)</t>
+  </si>
+  <si>
+    <t>M.S. cap 200 mm dia (7748 - Water Charge and CPOH Added) (Code: GWD020)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -220,12 +225,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,7 +518,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="A2" sqref="A2:A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,7 +536,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -535,7 +544,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -543,7 +552,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -551,7 +560,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1">
         <v>85</v>
@@ -559,7 +568,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1">
         <v>85</v>
@@ -567,7 +576,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -575,7 +584,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -583,7 +592,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -591,7 +600,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -599,7 +608,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -607,7 +616,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
@@ -615,7 +624,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
@@ -623,7 +632,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B14" s="1">
         <v>3000</v>
@@ -631,7 +640,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
@@ -639,7 +648,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
@@ -647,7 +656,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
@@ -655,7 +664,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
@@ -663,7 +672,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B19" s="1">
         <v>50</v>
@@ -671,7 +680,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B20" s="1">
         <v>50</v>
@@ -679,7 +688,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B21" s="1">
         <v>50</v>
@@ -687,7 +696,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B22" s="1">
         <v>50</v>
@@ -695,7 +704,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B23" s="1">
         <v>100</v>
@@ -703,7 +712,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" s="1">
         <v>10</v>
@@ -711,7 +720,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B25" s="1">
         <v>4</v>
@@ -719,7 +728,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B26" s="1">
         <v>4</v>
@@ -735,17 +744,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="1" width="8.7109375" style="3"/>
+    <col min="2" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -754,7 +764,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -778,7 +788,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B5" s="2">
         <v>15</v>
@@ -786,7 +796,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6" s="2">
         <v>50</v>
@@ -794,7 +804,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B7" s="2">
         <v>60</v>
@@ -802,7 +812,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
@@ -810,7 +820,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
@@ -818,7 +828,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2">
         <v>65</v>
@@ -826,7 +836,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2">
         <v>20</v>
@@ -834,7 +844,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
@@ -842,7 +852,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2">
         <v>1</v>
@@ -850,7 +860,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
@@ -858,7 +868,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
@@ -866,7 +876,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
@@ -874,7 +884,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B17" s="2">
         <v>1</v>
@@ -882,7 +892,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B18" s="2">
         <v>3000</v>
@@ -890,7 +900,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B19" s="2">
         <v>1</v>
@@ -898,7 +908,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B20" s="2">
         <v>1</v>
@@ -906,7 +916,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B21" s="2">
         <v>1</v>
@@ -914,7 +924,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
@@ -922,7 +932,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B23" s="2">
         <v>100</v>
@@ -930,7 +940,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B24" s="2">
         <v>100</v>
@@ -938,7 +948,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B25" s="2">
         <v>100</v>
@@ -946,7 +956,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B26" s="2">
         <v>100</v>
@@ -954,7 +964,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B27" s="2">
         <v>250</v>
@@ -962,7 +972,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2">
         <v>10</v>
@@ -970,7 +980,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B29" s="2">
         <v>6</v>
@@ -978,7 +988,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B30" s="2">
         <v>6</v>
@@ -995,7 +1005,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,7 +1020,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -1018,7 +1028,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>20</v>
@@ -1026,7 +1036,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1034,6 +1044,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1042,7 +1053,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1057,7 +1068,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -1065,7 +1076,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>20</v>
@@ -1081,6 +1092,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1089,10 +1101,13 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B7"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1144,7 +1159,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B7">
         <v>20</v>
@@ -1152,6 +1167,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1159,11 +1175,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F52A1A6B-7BA3-45B8-8EF7-73A16298341E}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1175,7 +1194,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2">
         <v>150</v>
@@ -1183,7 +1202,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B3">
         <v>120</v>
@@ -1191,7 +1210,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B4">
         <v>30</v>
@@ -1199,7 +1218,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1207,15 +1226,15 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>50</v>
+      <c r="A7" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
         <v>20</v>

--- a/Templates.xlsx
+++ b/Templates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Core i5 GAMING\Desktop\estimate-drafter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manup\Desktop\estimate-drafter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9BF0E7E6-7B67-4AC7-AF77-58F1B1C598F2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B0F205-C920-4F98-BDB9-907A511BD51E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="180" windowWidth="9855" windowHeight="7215" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="180" windowWidth="9860" windowHeight="7220" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MWSS with Submersible Pump" sheetId="2" r:id="rId1"/>
@@ -19,8 +19,10 @@
     <sheet name="150 mm BWC" sheetId="5" r:id="rId4"/>
     <sheet name="150 mm TWC" sheetId="6" r:id="rId5"/>
     <sheet name="200 mm TWC" sheetId="7" r:id="rId6"/>
+    <sheet name="Submersible Pump Installation" sheetId="8" r:id="rId7"/>
+    <sheet name="Compressor Pump Installation" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="179021" iterateDelta="1E-4"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="51">
   <si>
     <t>Item Name</t>
   </si>
@@ -521,12 +523,12 @@
       <selection activeCell="A2" sqref="A2:A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -534,7 +536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -542,7 +544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -550,7 +552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -558,7 +560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -566,7 +568,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -574,7 +576,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -582,7 +584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -590,7 +592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -598,7 +600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -606,7 +608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -614,7 +616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -622,7 +624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -630,7 +632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -638,7 +640,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -646,7 +648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -654,7 +656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -662,7 +664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
@@ -670,7 +672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
@@ -678,7 +680,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
@@ -686,7 +688,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
@@ -694,7 +696,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
@@ -702,7 +704,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
@@ -710,7 +712,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -718,7 +720,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>4</v>
       </c>
@@ -726,7 +728,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>5</v>
       </c>
@@ -748,13 +750,13 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="3"/>
-    <col min="2" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="1" width="8.7265625" style="3"/>
+    <col min="2" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -762,7 +764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -770,7 +772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -778,7 +780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>30</v>
       </c>
@@ -786,7 +788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>31</v>
       </c>
@@ -794,7 +796,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
@@ -802,7 +804,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
@@ -810,7 +812,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
@@ -818,7 +820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>35</v>
       </c>
@@ -826,7 +828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -834,7 +836,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -842,7 +844,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
@@ -850,7 +852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -858,7 +860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -866,7 +868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
@@ -874,7 +876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
@@ -882,7 +884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>8</v>
       </c>
@@ -890,7 +892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
@@ -898,7 +900,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
@@ -906,7 +908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
@@ -914,7 +916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
@@ -922,7 +924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
@@ -930,7 +932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
@@ -938,7 +940,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
@@ -946,7 +948,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
@@ -954,7 +956,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
@@ -962,7 +964,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>3</v>
       </c>
@@ -970,7 +972,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -978,7 +980,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>4</v>
       </c>
@@ -986,7 +988,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>5</v>
       </c>
@@ -1008,9 +1010,9 @@
       <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1018,7 +1020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -1026,7 +1028,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1034,7 +1036,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -1056,9 +1058,9 @@
       <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1066,7 +1068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -1074,7 +1076,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1082,7 +1084,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -1101,15 +1103,15 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1117,7 +1119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -1125,7 +1127,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -1133,7 +1135,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -1141,7 +1143,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -1149,7 +1151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -1157,7 +1159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -1175,16 +1177,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F52A1A6B-7BA3-45B8-8EF7-73A16298341E}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1192,7 +1194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -1200,7 +1202,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -1208,7 +1210,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -1216,7 +1218,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -1224,7 +1226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -1232,7 +1234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>45</v>
       </c>
@@ -1244,4 +1246,258 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF9A5F76-D8ED-42BD-9321-D6FD8EB33F52}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FDC07DB-6CE0-44A7-A54C-721B3D36CA1E}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Templates.xlsx
+++ b/Templates.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manup\Desktop\estimate-drafter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B0F205-C920-4F98-BDB9-907A511BD51E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239F8853-19E3-48ED-8647-7E8D7FECC7AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="180" windowWidth="9860" windowHeight="7220" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="180" windowWidth="9860" windowHeight="7220" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MWSS with Submersible Pump" sheetId="2" r:id="rId1"/>
     <sheet name="MWSS with Compressor Pump" sheetId="3" r:id="rId2"/>
-    <sheet name="110 mm BWC" sheetId="4" r:id="rId3"/>
-    <sheet name="150 mm BWC" sheetId="5" r:id="rId4"/>
-    <sheet name="150 mm TWC" sheetId="6" r:id="rId5"/>
-    <sheet name="200 mm TWC" sheetId="7" r:id="rId6"/>
+    <sheet name="110 mm Borewell Construction" sheetId="4" r:id="rId3"/>
+    <sheet name="150 mm Borewell Construction" sheetId="5" r:id="rId4"/>
+    <sheet name="150 mm Tubewell Construction" sheetId="6" r:id="rId5"/>
+    <sheet name="200 mm Tubewell Construction" sheetId="7" r:id="rId6"/>
     <sheet name="Submersible Pump Installation" sheetId="8" r:id="rId7"/>
     <sheet name="Compressor Pump Installation" sheetId="9" r:id="rId8"/>
   </sheets>
@@ -1006,8 +1006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{283C56C8-5101-4528-9234-DFAFA8B3C182}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1054,8 +1054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE8597B7-0160-4D8F-B8C8-FDE4C5B94C30}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1102,8 +1102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9BB96C7-B819-4358-9077-88E63A141CF4}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1178,7 +1178,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1363,7 +1363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FDC07DB-6CE0-44A7-A54C-721B3D36CA1E}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>

--- a/Templates.xlsx
+++ b/Templates.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manup\Desktop\estimate-drafter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239F8853-19E3-48ED-8647-7E8D7FECC7AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D2BB97-1775-4D0E-95C8-EE274988FFC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="180" windowWidth="9860" windowHeight="7220" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="180" windowWidth="9860" windowHeight="7220" tabRatio="942" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MWSS with Submersible Pump" sheetId="2" r:id="rId1"/>
@@ -52,48 +52,15 @@
     <t>Providing and laying in position cement concrete of specified grade excluding the cost of centering and shuttering - All work up to plinth level: 1:2:4 )1 cement : 2 coarse sand : 4 graded stone aggregate 40 mm nominal size) (Code: 4.1.4)</t>
   </si>
   <si>
-    <t>Well Protection Cover (Code: GWD001)</t>
-  </si>
-  <si>
-    <t>Metallic Pump House of size 1.2 x 0.9 x 2 m (Code: GWD006)</t>
-  </si>
-  <si>
-    <t>Estimate For Fabricated Angle Iron Structure To Support 3000 Litres Capacity Water Tank At 4 m Height (Code: GWD003)</t>
-  </si>
-  <si>
-    <t>Supplying, assembling, lowering and fixing in vertical position in Borewell, PVC 140 mm 6 Kg/cm2 well casing pipe of required dia, conforming to IS : 4985:2000, including required hire and labour charges, fittings &amp; accessories etc. all complete, for all depths, as per direction of Engineer- in- Charge. (Code: GWD007)</t>
-  </si>
-  <si>
-    <t>Supplying, assembling, lowering and fixing in vertical position in Borewell, PVC 180mm 10 Kg/cm2 well casing pipe of required dia, conforming to IS : 4985:2000, including required hire and labour charges, fittings &amp; accessories etc. all complete, for all depths, as per direction of Engineer- in- Charge. (Code: GWD017)</t>
-  </si>
-  <si>
-    <t>Flushing (Developing) Borewell (Code: GWD105)</t>
-  </si>
-  <si>
-    <t>2 HP 18 Stage 120-40 m head single phase pump including panel board (Code: GWDMR073)</t>
-  </si>
-  <si>
     <t>40 mm dia UPVC pipe (Code: GWDMR103)</t>
   </si>
   <si>
     <t>14 mm thick nylon rope (Code: GWDMR099)</t>
   </si>
   <si>
-    <t>Supply and drawing FRLS PVC insulated &amp; sheathed 650/1100 V grade 3 core copper conductor flat cable for submersible pump motor conforming to IS 694 part I 1990 as required including giving necessary connections of the following sizes. 4 sq mm (90.6.6.3) (Code: GWD117)</t>
-  </si>
-  <si>
-    <t>Borewell submersible pump erection charges upto 3 HP (Code: GWD049)</t>
-  </si>
-  <si>
-    <t>Providing and fixing gun metal non-return valve of approved quality (screwed end): 40 mm nominal bore Horizontal (18.19.3.1) (Code: GWD259)</t>
-  </si>
-  <si>
     <t>40 mm SS Adapter (Code: GWDMR110)</t>
   </si>
   <si>
-    <t>S &amp; F Motor starters of the following ratings Submersible pump controllers with ammeter,DPMCB for single phase 2 HP submersible motor pumps (DOL) (90.14.28.13) (Code: GWD134)</t>
-  </si>
-  <si>
     <t>PVC Tank connector 40 mm (Code: GWDMR035)</t>
   </si>
   <si>
@@ -103,88 +70,121 @@
     <t>PVC Ball valve 50 mm (Code: GWDMR043)</t>
   </si>
   <si>
-    <t>Providing and fixing PVC pipes includings jointing of pipes with one step PVC solvent cement, trenching, refilling &amp; testing of joints complete as per direction of Engineer in Charge. 50 mm dia 10Kgf/cm2 (50.18.9.6.1) (Code: GWD192)</t>
-  </si>
-  <si>
-    <t>Providing and fixing PVC pipes includings jointing of pipes with one step PVC solvent cement, trenching refilling &amp; testing of joints complete as per direction of Engineer in Charge 40 mm dia 10Kgf/cm2 (50.18.9.5.1) (Code: GWD190)</t>
-  </si>
-  <si>
-    <t>Providing and fixing PVC pipes includings jointing of pipes with one step PVC solvent cement, trenching, refilling &amp; testing of joints complete as per direction of Engineer in Charge.32 mm dia 10.Kgf/cm2 (50.18.9.4.1) (Code: GWD188)</t>
-  </si>
-  <si>
-    <t>Providing and fixing PVC pipes includes jointing of pipes with one step PVC solvent cement, trenching, refilling &amp; testing of joints complete as per direction of Engineer in Charge. 25 mm dia 10KGF/cm2 (50.18.9.3.2) (Code: GWD187)</t>
-  </si>
-  <si>
-    <t>Hydrants with tap ( for individual families of size 0.6 X 0.3 M platform) (Code: GWD062)</t>
-  </si>
-  <si>
     <t>PVC Ball valve 40 mm (Code: GWDMR042)</t>
   </si>
   <si>
     <t>Compressor pump 2 HP single phase (Code: GWDMR095)</t>
   </si>
   <si>
-    <t>Compressor pump fitting charge (Code: GWD055)</t>
-  </si>
-  <si>
-    <t>Providing and fixing G.I. pipes complete with G.I fittings including trenching and refilling etc. External work 25 mm dia nominal bore (18.12.3) (Code: GWD242)</t>
-  </si>
-  <si>
     <t>20 mm dia HDPE pipe (DG) (8kg) (Code: GWDMR106)</t>
   </si>
   <si>
     <t>32 mm dia UPVC pipe (Code: GWDMR102)</t>
   </si>
   <si>
-    <t>Providing and fixing G.I. Union in G.I pipe including cutting and threading the pipe and making long screws etc. complete ( New work): 32 mm nominal bore (18.46.4) (Code: GWD270)</t>
-  </si>
-  <si>
     <t>GI Bend 32 mm (Code: GWDMR052)</t>
   </si>
   <si>
-    <t>110mm (4.5") Borewell Drilling (Code: GWD100)</t>
-  </si>
-  <si>
     <t>PVC End cap 140 mm (DG) (Code: GWDMR003)</t>
   </si>
   <si>
-    <t>150mm (6") Borewell Drilling (Code: GWD101)</t>
-  </si>
-  <si>
     <t>PVC End Cap 180 mm (DG) (Code: GWDMR005)</t>
   </si>
   <si>
-    <t>150mm (6") Tubewell Drilling (Code: GWD102)</t>
-  </si>
-  <si>
-    <t>Supplying, assembling, lowering and fixing in vertical position in bore well, unplasticized PVC medium well casing (CM) pipe of required dia, conforming to IS : 12818, including required hire and labour charges, fittings &amp; accessories etc. all complete, for all depths, as per direction of Engineer- in- Charge. 150 mm nominal size dia (23.3.2) (Code: GWD022)</t>
-  </si>
-  <si>
-    <t>Supplying, assembling, lowering and fixing in vertical position in bore well unplasticized PVC medium well screen (RMS) pipes with ribs, conforming to IS: 12818, including hire &amp; labour charges, fittings &amp; accessories etc. all complete, for all depths, as per direction of Engineer - in-charge 150 mm nominal size dia (23.4.2) (Code: GWD023)</t>
-  </si>
-  <si>
-    <t>Providing and fixing Bail plug / Bottom plug of required dia to the bottom of pipe assembly of tubewell as per IS : 2800 (part I). 150 mm dia (23.15.2) (Code: GWD025)</t>
-  </si>
-  <si>
-    <t>M.S. cap 150 mm dia (7747 - Water Charge and CPOH Added) (Code: GWD024)</t>
-  </si>
-  <si>
     <t>MS Casing pipe 450 mm dia, 6 mm thickness (Code: GWDMR117)</t>
   </si>
   <si>
-    <t>Tubewell Drilling 200mm (8") (Code: GWD103)</t>
-  </si>
-  <si>
-    <t>Supplying, assembling, lowering and fixing in vertical position in bore well, unplasticized PVC medium well casing (CM) pipe of required dia, conforming to IS : 12818, including required hire and labour charges, fittings &amp; accessories etc. all complete, for all depths, as per direction of Engineer- in- Charge. 200 mm nominal size dia (23.3.3) (Code: GWD018)</t>
-  </si>
-  <si>
-    <t>Supplying, assembling, lowering and fixing in vertical position in bore well unplasticized PVC medium well screen (RMS) pipes with ribs, conforming to IS: 12818, including hire &amp; labour charges, fittings &amp; accessories etc. all complete, for all depths, as per direction of Engineer - in-charge 200 mm nominal size dia (23.4.3) (Code: GWD019)</t>
-  </si>
-  <si>
-    <t>Providing and fixing Bail plug / Bottom plug of required dia to the bottom of pipe assembly of tubewell as per IS : 2800 (part I). 200 mm dia (23.15.3) (Code: GWD021)</t>
-  </si>
-  <si>
-    <t>M.S. cap 200 mm dia (7748 - Water Charge and CPOH Added) (Code: GWD020)</t>
+    <t>2 HP 18 Stage 120-40 m head single phase Submersible Pump including panel board (Code: GWDMR073)</t>
+  </si>
+  <si>
+    <t>Flushing (Developing) Borewell (Code: GWDDR105)</t>
+  </si>
+  <si>
+    <t>Supply and drawing FRLS PVC insulated &amp; sheathed 650/1100 V grade 3 core copper conductor flat cable for submersible pump motor conforming to IS 694 part I 1990 as required including giving necessary connections of the following sizes. 4 sq mm (90.6.6.3) (Code: GWDDR117)</t>
+  </si>
+  <si>
+    <t>Borewell submersible pump erection charges upto 3 HP (Code: GWDDR049)</t>
+  </si>
+  <si>
+    <t>Well Protection Cover (Code: GWDDR001)</t>
+  </si>
+  <si>
+    <t>Metallic Pump House of size 1.2 x 0.9 x 2 m (Code: GWDDR006)</t>
+  </si>
+  <si>
+    <t>S &amp; F Motor starters of the following ratings Submersible pump controllers with ammeter,DPMCB for single phase 2 HP submersible motor pumps (DOL) (90.14.28.13) (Code: GWDDR134)</t>
+  </si>
+  <si>
+    <t>Estimate For Fabricated Angle Iron Structure To Support 3000 Litres Capacity Water Tank At 4 m Height (Code: GWDDR003)</t>
+  </si>
+  <si>
+    <t>Providing and fixing PVC pipes includings jointing of pipes with one step PVC solvent cement, trenching, refilling &amp; testing of joints complete as per direction of Engineer in Charge. 50 mm dia 10Kgf/cm2 (50.18.9.6.1) (Code: GWDDR192)</t>
+  </si>
+  <si>
+    <t>Providing and fixing PVC pipes includings jointing of pipes with one step PVC solvent cement, trenching refilling &amp; testing of joints complete as per direction of Engineer in Charge 40 mm dia 10Kgf/cm2 (50.18.9.5.1) (Code: GWDDR190)</t>
+  </si>
+  <si>
+    <t>Providing and fixing PVC pipes includings jointing of pipes with one step PVC solvent cement, trenching, refilling &amp; testing of joints complete as per direction of Engineer in Charge.32 mm dia 10.Kgf/cm2 (50.18.9.4.1) (Code: GWDDR188)</t>
+  </si>
+  <si>
+    <t>Providing and fixing PVC pipes includes jointing of pipes with one step PVC solvent cement, trenching, refilling &amp; testing of joints complete as per direction of Engineer in Charge. 25 mm dia 10KGF/cm2 (50.18.9.3.2) (Code: GWDDR187)</t>
+  </si>
+  <si>
+    <t>Hydrants with tap ( for individual families of size 0.6 X 0.3 M platform) (Code: GWDDR062)</t>
+  </si>
+  <si>
+    <t>Compressor pump fitting charge (Code: GWDDR055)</t>
+  </si>
+  <si>
+    <t>110mm (4.5") Borewell Drilling (Code: GWDDR100)</t>
+  </si>
+  <si>
+    <t>Supplying, assembling, lowering and fixing in vertical position in Borewell, PVC 140 mm 6 Kg/cm2 well casing pipe of required dia, conforming to IS : 4985:2000, including required hire and labour charges, fittings &amp; accessories etc. all complete, for all depths, as per direction of Engineer- in- Charge. (Code: GWDDR007)</t>
+  </si>
+  <si>
+    <t>150mm (6") Borewell Drilling (Code: GWDDR101)</t>
+  </si>
+  <si>
+    <t>Supplying, assembling, lowering and fixing in vertical position in Borewell, PVC 180mm 10 Kg/cm2 well casing pipe of required dia, conforming to IS : 4985:2000, including required hire and labour charges, fittings &amp; accessories etc. all complete, for all depths, as per direction of Engineer- in- Charge. (Code: GWDDR017)</t>
+  </si>
+  <si>
+    <t>150mm (6") Tubewell Drilling (Code: GWDDR102)</t>
+  </si>
+  <si>
+    <t>Supplying, assembling, lowering and fixing in vertical position in bore well, unplasticized PVC medium well casing (CM) pipe of required dia, conforming to IS : 12818, including required hire and labour charges, fittings &amp; accessories etc. all complete, for all depths, as per direction of Engineer- in- Charge. 150 mm nominal size dia (23.3.2) (Code: GWDDR022)</t>
+  </si>
+  <si>
+    <t>Supplying, assembling, lowering and fixing in vertical position in bore well unplasticized PVC medium well screen (RMS) pipes with ribs, conforming to IS: 12818, including hire &amp; labour charges, fittings &amp; accessories etc. all complete, for all depths, as per direction of Engineer - in-charge 150 mm nominal size dia (23.4.2) (Code: GWDDR023)</t>
+  </si>
+  <si>
+    <t>Providing and fixing Bail plug / Bottom plug of required dia to the bottom of pipe assembly of tubewell as per IS : 2800 (part I). 150 mm dia (23.15.2) (Code: GWDDR025)</t>
+  </si>
+  <si>
+    <t>M.S. cap 150 mm dia (7747 - Water Charge and CPOH Added) (Code: GWDDR024)</t>
+  </si>
+  <si>
+    <t>Tubewell Drilling 200mm (8") (Code: GWDDR103)</t>
+  </si>
+  <si>
+    <t>Supplying, assembling, lowering and fixing in vertical position in bore well, unplasticized PVC medium well casing (CM) pipe of required dia, conforming to IS : 12818, including required hire and labour charges, fittings &amp; accessories etc. all complete, for all depths, as per direction of Engineer- in- Charge. 200 mm nominal size dia (23.3.3) (Code: GWDDR018)</t>
+  </si>
+  <si>
+    <t>Supplying, assembling, lowering and fixing in vertical position in bore well unplasticized PVC medium well screen (RMS) pipes with ribs, conforming to IS: 12818, including hire &amp; labour charges, fittings &amp; accessories etc. all complete, for all depths, as per direction of Engineer - in-charge 200 mm nominal size dia (23.4.3) (Code: GWDDR019)</t>
+  </si>
+  <si>
+    <t>Providing and fixing Bail plug / Bottom plug of required dia to the bottom of pipe assembly of tubewell as per IS : 2800 (part I). 200 mm dia (23.15.3) (Code: GWDDR021)</t>
+  </si>
+  <si>
+    <t>M.S. cap 200 mm dia (7748 - Water Charge and CPOH Added) (Code: GWDDR020)</t>
+  </si>
+  <si>
+    <t>Providing and fixing gun metal non-return valve of approved quality (screwed end): 40 mm nominal bore Horizontal (18.19.3.1) (Code: GWDDR260)</t>
+  </si>
+  <si>
+    <t>Providing and fixing G.I. Union in G.I pipe including cutting and threading the pipe and making long screws etc. complete ( New work): 32 mm nominal bore (18.46.4) (Code: GWDDR271)</t>
+  </si>
+  <si>
+    <t>Providing and fixing G.I. pipes complete with G.I fittings including trenching and refilling etc. External work 25 mm dia nominal bore (18.12.3) (Code: GWDDR243)</t>
   </si>
 </sst>
 </file>
@@ -227,16 +227,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,10 +520,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A26"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -538,7 +542,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -546,7 +550,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -554,7 +558,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -562,7 +566,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1">
         <v>85</v>
@@ -570,7 +574,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1">
         <v>85</v>
@@ -578,7 +582,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -586,7 +590,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -594,7 +598,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -602,7 +606,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -610,7 +614,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -618,7 +622,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
@@ -626,7 +630,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
@@ -642,7 +646,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
@@ -650,7 +654,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
@@ -658,7 +662,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
@@ -666,7 +670,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
@@ -674,7 +678,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B19" s="1">
         <v>50</v>
@@ -682,7 +686,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B20" s="1">
         <v>50</v>
@@ -690,7 +694,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B21" s="1">
         <v>50</v>
@@ -698,7 +702,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B22" s="1">
         <v>50</v>
@@ -714,7 +718,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B24" s="1">
         <v>10</v>
@@ -744,20 +748,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="3"/>
+    <col min="1" max="1" width="8.7265625" style="4"/>
     <col min="2" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -765,135 +770,135 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
+      <c r="A2" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>29</v>
+      <c r="A3" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>30</v>
+      <c r="A4" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>31</v>
+      <c r="A5" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="B5" s="2">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>32</v>
+      <c r="A6" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="B6" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>33</v>
+      <c r="A7" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="B7" s="2">
         <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>34</v>
+      <c r="A8" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>35</v>
+      <c r="A9" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>14</v>
+      <c r="A10" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B10" s="2">
         <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>15</v>
+      <c r="A11" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="B11" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>6</v>
+      <c r="A12" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>17</v>
+      <c r="A13" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="B13" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>18</v>
+      <c r="A14" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>7</v>
+      <c r="A15" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>19</v>
+      <c r="A16" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>8</v>
+      <c r="A17" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="B17" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B18" s="2">
@@ -901,71 +906,71 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>20</v>
+      <c r="A19" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="B19" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>21</v>
+      <c r="A20" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="B20" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="B21" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="B23" s="2">
         <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
-        <v>24</v>
+      <c r="A24" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="B24" s="2">
         <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
-        <v>25</v>
+      <c r="A25" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="B25" s="2">
         <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
-        <v>26</v>
+      <c r="A26" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="B26" s="2">
         <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B27" s="2">
@@ -973,15 +978,15 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
-        <v>27</v>
+      <c r="A28" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="B28" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B29" s="2">
@@ -989,7 +994,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B30" s="2">
@@ -1004,13 +1009,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{283C56C8-5101-4528-9234-DFAFA8B3C182}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="255.6328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -1022,7 +1031,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -1030,7 +1039,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B3">
         <v>20</v>
@@ -1038,7 +1047,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1052,6 +1061,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE8597B7-0160-4D8F-B8C8-FDE4C5B94C30}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -1070,7 +1080,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -1078,7 +1088,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>20</v>
@@ -1086,7 +1096,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1100,9 +1110,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9BB96C7-B819-4358-9077-88E63A141CF4}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
@@ -1121,7 +1132,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2">
         <v>150</v>
@@ -1129,7 +1140,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B3">
         <v>120</v>
@@ -1137,7 +1148,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B4">
         <v>30</v>
@@ -1145,7 +1156,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1153,7 +1164,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1161,7 +1172,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>20</v>
@@ -1175,6 +1186,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F52A1A6B-7BA3-45B8-8EF7-73A16298341E}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1196,7 +1208,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B2">
         <v>150</v>
@@ -1204,7 +1216,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B3">
         <v>120</v>
@@ -1212,7 +1224,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B4">
         <v>30</v>
@@ -1220,7 +1232,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1228,15 +1240,15 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>45</v>
+      <c r="A7" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="B7">
         <v>20</v>
@@ -1250,10 +1262,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF9A5F76-D8ED-42BD-9321-D6FD8EB33F52}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1268,7 +1281,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1276,7 +1289,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1284,7 +1297,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1292,7 +1305,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>85</v>
@@ -1300,7 +1313,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B6">
         <v>85</v>
@@ -1308,7 +1321,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1316,7 +1329,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1324,7 +1337,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1332,7 +1345,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1340,7 +1353,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1348,7 +1361,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1361,10 +1374,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FDC07DB-6CE0-44A7-A54C-721B3D36CA1E}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1379,7 +1393,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1387,7 +1401,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1395,7 +1409,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1403,7 +1417,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="B5">
         <v>15</v>
@@ -1411,7 +1425,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>50</v>
@@ -1419,7 +1433,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>60</v>
@@ -1427,7 +1441,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1435,7 +1449,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1443,7 +1457,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>65</v>
@@ -1451,7 +1465,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B11">
         <v>20</v>
@@ -1459,7 +1473,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1467,7 +1481,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1475,7 +1489,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1483,7 +1497,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1491,7 +1505,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B16">
         <v>1</v>

--- a/Templates.xlsx
+++ b/Templates.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manup\Desktop\estimate-drafter\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D2BB97-1775-4D0E-95C8-EE274988FFC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="180" windowWidth="9860" windowHeight="7220" tabRatio="942" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="180" windowWidth="9860" windowHeight="7220" tabRatio="942" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="MWSS with Submersible Pump" sheetId="2" r:id="rId1"/>
@@ -22,7 +16,7 @@
     <sheet name="Submersible Pump Installation" sheetId="8" r:id="rId7"/>
     <sheet name="Compressor Pump Installation" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="54">
   <si>
     <t>Item Name</t>
   </si>
@@ -52,15 +46,6 @@
     <t>Providing and laying in position cement concrete of specified grade excluding the cost of centering and shuttering - All work up to plinth level: 1:2:4 )1 cement : 2 coarse sand : 4 graded stone aggregate 40 mm nominal size) (Code: 4.1.4)</t>
   </si>
   <si>
-    <t>40 mm dia UPVC pipe (Code: GWDMR103)</t>
-  </si>
-  <si>
-    <t>14 mm thick nylon rope (Code: GWDMR099)</t>
-  </si>
-  <si>
-    <t>40 mm SS Adapter (Code: GWDMR110)</t>
-  </si>
-  <si>
     <t>PVC Tank connector 40 mm (Code: GWDMR035)</t>
   </si>
   <si>
@@ -91,12 +76,6 @@
     <t>PVC End Cap 180 mm (DG) (Code: GWDMR005)</t>
   </si>
   <si>
-    <t>MS Casing pipe 450 mm dia, 6 mm thickness (Code: GWDMR117)</t>
-  </si>
-  <si>
-    <t>2 HP 18 Stage 120-40 m head single phase Submersible Pump including panel board (Code: GWDMR073)</t>
-  </si>
-  <si>
     <t>Flushing (Developing) Borewell (Code: GWDDR105)</t>
   </si>
   <si>
@@ -185,12 +164,36 @@
   </si>
   <si>
     <t>Providing and fixing G.I. pipes complete with G.I fittings including trenching and refilling etc. External work 25 mm dia nominal bore (18.12.3) (Code: GWDDR243)</t>
+  </si>
+  <si>
+    <t>Supply of Single Phase Submersible Pump 2 HP, Discharge 5200-10600 lph, Head 57-18m without Panel Board (Code: GWDMR149)</t>
+  </si>
+  <si>
+    <t>14 mm thick nylon rope (Code: GWDMR069)</t>
+  </si>
+  <si>
+    <t>40 mm dia UPVC pipe (Code: GWDMR073)</t>
+  </si>
+  <si>
+    <t>32 mm dia UPVC pipe (Code: GWDMR072)</t>
+  </si>
+  <si>
+    <t>20 mm dia HDPE pipe (DG) (8kg) (Code: GWDMR076)</t>
+  </si>
+  <si>
+    <t>40 mm SS Adapter (Code: GWDMR080)</t>
+  </si>
+  <si>
+    <t>Compressor pump 2 HP single phase (Code: GWDMR065)</t>
+  </si>
+  <si>
+    <t>MS Casing pipe 450 mm dia, 6 mm thickness (Code: GWDMR087)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -512,24 +515,25 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="255.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -542,7 +546,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -550,7 +554,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -558,7 +562,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -566,7 +570,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="B5" s="1">
         <v>85</v>
@@ -574,7 +578,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1">
         <v>85</v>
@@ -582,7 +586,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -590,7 +594,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -598,7 +602,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -606,7 +610,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -614,7 +618,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -622,7 +626,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
@@ -630,7 +634,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
@@ -646,7 +650,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
@@ -654,7 +658,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
@@ -662,7 +666,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
@@ -670,7 +674,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
@@ -678,7 +682,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B19" s="1">
         <v>50</v>
@@ -686,7 +690,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B20" s="1">
         <v>50</v>
@@ -694,7 +698,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B21" s="1">
         <v>50</v>
@@ -702,7 +706,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B22" s="1">
         <v>50</v>
@@ -718,7 +722,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B24" s="1">
         <v>10</v>
@@ -747,17 +751,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="4"/>
+    <col min="1" max="1" width="255.6328125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
@@ -771,7 +775,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -779,7 +783,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -787,7 +791,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
@@ -795,7 +799,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B5" s="2">
         <v>15</v>
@@ -803,7 +807,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2">
         <v>50</v>
@@ -811,7 +815,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2">
         <v>60</v>
@@ -819,7 +823,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
@@ -827,7 +831,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
@@ -835,7 +839,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="B10" s="2">
         <v>65</v>
@@ -843,7 +847,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2">
         <v>20</v>
@@ -851,7 +855,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
@@ -859,7 +863,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B13" s="2">
         <v>1</v>
@@ -867,7 +871,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
@@ -875,7 +879,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
@@ -883,7 +887,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
@@ -891,7 +895,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B17" s="2">
         <v>1</v>
@@ -907,7 +911,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B19" s="2">
         <v>1</v>
@@ -915,7 +919,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B20" s="2">
         <v>1</v>
@@ -923,7 +927,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B21" s="2">
         <v>1</v>
@@ -931,7 +935,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
@@ -939,7 +943,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B23" s="2">
         <v>100</v>
@@ -947,7 +951,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B24" s="2">
         <v>100</v>
@@ -955,7 +959,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B25" s="2">
         <v>100</v>
@@ -963,7 +967,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B26" s="2">
         <v>100</v>
@@ -979,7 +983,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2">
         <v>10</v>
@@ -1008,7 +1012,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{283C56C8-5101-4528-9234-DFAFA8B3C182}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1031,7 +1035,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -1039,7 +1043,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B3">
         <v>20</v>
@@ -1047,7 +1051,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1060,15 +1064,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE8597B7-0160-4D8F-B8C8-FDE4C5B94C30}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="255.6328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -1080,7 +1087,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -1088,7 +1095,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>20</v>
@@ -1096,7 +1103,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1109,12 +1116,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9BB96C7-B819-4358-9077-88E63A141CF4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1132,7 +1139,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B2">
         <v>150</v>
@@ -1140,7 +1147,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B3">
         <v>120</v>
@@ -1148,7 +1155,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>30</v>
@@ -1156,7 +1163,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1164,7 +1171,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1172,7 +1179,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="B7">
         <v>20</v>
@@ -1185,12 +1192,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F52A1A6B-7BA3-45B8-8EF7-73A16298341E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1208,7 +1215,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B2">
         <v>150</v>
@@ -1216,7 +1223,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B3">
         <v>120</v>
@@ -1224,7 +1231,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B4">
         <v>30</v>
@@ -1232,7 +1239,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1240,7 +1247,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1248,7 +1255,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="B7">
         <v>20</v>
@@ -1261,15 +1268,18 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF9A5F76-D8ED-42BD-9321-D6FD8EB33F52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="236.36328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -1281,15 +1291,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>20</v>
+      <c r="A3" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1297,7 +1307,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1305,7 +1315,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="B5">
         <v>85</v>
@@ -1313,7 +1323,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>85</v>
@@ -1321,7 +1331,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1329,7 +1339,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1337,7 +1347,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1345,7 +1355,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1353,7 +1363,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1361,7 +1371,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1373,15 +1383,18 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FDC07DB-6CE0-44A7-A54C-721B3D36CA1E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="236.36328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -1393,7 +1406,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1401,7 +1414,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1409,7 +1422,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1417,7 +1430,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B5">
         <v>15</v>
@@ -1425,7 +1438,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="B6">
         <v>50</v>
@@ -1433,7 +1446,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="B7">
         <v>60</v>
@@ -1441,7 +1454,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1449,7 +1462,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1457,7 +1470,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>65</v>
@@ -1465,7 +1478,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>20</v>
@@ -1473,7 +1486,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1481,7 +1494,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1489,7 +1502,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1497,7 +1510,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1505,7 +1518,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B16">
         <v>1</v>

--- a/Templates.xlsx
+++ b/Templates.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="180" windowWidth="9860" windowHeight="7220" tabRatio="942" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="-20" yWindow="180" windowWidth="9860" windowHeight="7220" tabRatio="942" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MWSS with Submersible Pump" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="51">
   <si>
     <t>Item Name</t>
   </si>
@@ -56,15 +56,6 @@
   </si>
   <si>
     <t>PVC Ball valve 40 mm (Code: GWDMR042)</t>
-  </si>
-  <si>
-    <t>Compressor pump 2 HP single phase (Code: GWDMR095)</t>
-  </si>
-  <si>
-    <t>20 mm dia HDPE pipe (DG) (8kg) (Code: GWDMR106)</t>
-  </si>
-  <si>
-    <t>32 mm dia UPVC pipe (Code: GWDMR102)</t>
   </si>
   <si>
     <t>GI Bend 32 mm (Code: GWDMR052)</t>
@@ -515,7 +506,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -527,7 +518,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -546,7 +537,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -554,7 +545,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -562,7 +553,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -570,7 +561,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B5" s="1">
         <v>85</v>
@@ -578,7 +569,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1">
         <v>85</v>
@@ -586,7 +577,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -594,7 +585,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -602,7 +593,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -610,7 +601,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -618,7 +609,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -626,7 +617,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
@@ -634,7 +625,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
@@ -682,7 +673,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B19" s="1">
         <v>50</v>
@@ -690,7 +681,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B20" s="1">
         <v>50</v>
@@ -698,7 +689,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B21" s="1">
         <v>50</v>
@@ -706,7 +697,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B22" s="1">
         <v>50</v>
@@ -722,7 +713,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B24" s="1">
         <v>10</v>
@@ -755,8 +746,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -775,7 +766,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -783,7 +774,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -791,7 +782,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
@@ -799,23 +790,23 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B5" s="2">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>11</v>
+      <c r="A6" t="s">
+        <v>47</v>
       </c>
       <c r="B6" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>12</v>
+      <c r="A7" t="s">
+        <v>46</v>
       </c>
       <c r="B7" s="2">
         <v>60</v>
@@ -823,7 +814,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
@@ -831,7 +822,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
@@ -839,7 +830,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B10" s="2">
         <v>65</v>
@@ -847,7 +838,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2">
         <v>20</v>
@@ -855,7 +846,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
@@ -863,7 +854,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B13" s="2">
         <v>1</v>
@@ -871,7 +862,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
@@ -879,7 +870,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
@@ -887,7 +878,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
@@ -895,7 +886,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B17" s="2">
         <v>1</v>
@@ -943,7 +934,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B23" s="2">
         <v>100</v>
@@ -951,7 +942,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B24" s="2">
         <v>100</v>
@@ -959,7 +950,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B25" s="2">
         <v>100</v>
@@ -967,7 +958,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B26" s="2">
         <v>100</v>
@@ -983,7 +974,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B28" s="2">
         <v>10</v>
@@ -1035,7 +1026,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -1043,7 +1034,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>20</v>
@@ -1051,7 +1042,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1087,7 +1078,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -1095,7 +1086,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B3">
         <v>20</v>
@@ -1103,7 +1094,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1139,7 +1130,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B2">
         <v>150</v>
@@ -1147,7 +1138,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B3">
         <v>120</v>
@@ -1155,7 +1146,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B4">
         <v>30</v>
@@ -1163,7 +1154,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1171,7 +1162,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1179,7 +1170,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B7">
         <v>20</v>
@@ -1196,7 +1187,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -1215,7 +1206,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>150</v>
@@ -1223,7 +1214,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>120</v>
@@ -1231,7 +1222,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>30</v>
@@ -1239,7 +1230,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1247,7 +1238,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1255,7 +1246,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B7">
         <v>20</v>
@@ -1291,7 +1282,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1299,7 +1290,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1307,7 +1298,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1315,7 +1306,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>85</v>
@@ -1323,7 +1314,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>85</v>
@@ -1331,7 +1322,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1339,7 +1330,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1347,7 +1338,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1355,7 +1346,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1363,7 +1354,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1371,7 +1362,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1388,7 +1379,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1406,15 +1397,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>10</v>
+      <c r="A3" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1422,7 +1413,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1430,7 +1421,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>15</v>
@@ -1438,7 +1429,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B6">
         <v>50</v>
@@ -1446,7 +1437,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>60</v>
@@ -1454,7 +1445,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1462,7 +1453,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1470,7 +1461,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B10">
         <v>65</v>
@@ -1478,7 +1469,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>20</v>
@@ -1486,7 +1477,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1494,7 +1485,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1502,7 +1493,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1510,7 +1501,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1518,7 +1509,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>1</v>
